--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -10094,17 +10094,17 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>1503050001</t>
+          <t>1201090025</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX</t>
+          <t>PHALAENOPSIS MINIFLORA 1SP</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>C20A40</t>
+          <t>M6A25</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10114,28 +10114,28 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>116</v>
+        <v>103.92</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>60.65</v>
+        <v>49.67</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>200</v>
+        <v>33.33</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0</v>
@@ -10147,55 +10147,55 @@
         <v>2</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R107" s="4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T107" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T107" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W107" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>1201090025</t>
+          <t>1503050001</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>PHALAENOPSIS MINIFLORA 1SP</t>
+          <t>CACTUS MIX</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>M6A25</t>
+          <t>C20A40</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10205,28 +10205,28 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>103.92</v>
+        <v>116</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>49.67</v>
+        <v>60.65</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>33.33</v>
+        <v>200</v>
       </c>
       <c r="L108" s="4" t="n">
         <v>0</v>
@@ -10238,38 +10238,38 @@
         <v>2</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T108" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T108" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W108" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -16258,17 +16258,17 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>1306250001</t>
+          <t>1501070001</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>SAINTPAULIA</t>
+          <t>CACTUS COLECCION</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -16278,49 +16278,49 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G175" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H175" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I175" s="4" t="n">
-        <v>98.81999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="J175" s="4" t="n">
-        <v>62.48</v>
+        <v>45</v>
       </c>
       <c r="K175" s="4" t="n">
-        <v>56.25</v>
+        <v>36.36</v>
       </c>
       <c r="L175" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M175" s="5" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="N175" s="5" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O175" s="4" t="n">
         <v>14</v>
       </c>
       <c r="P175" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q175" s="4" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="R175" s="4" t="n">
-        <v>286.67</v>
+        <v>196.67</v>
       </c>
       <c r="S175" s="5" t="n">
         <v>30</v>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="V175" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W175" s="4" t="inlineStr">
@@ -16349,17 +16349,17 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>1501070001</t>
+          <t>1306250001</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>CACTUS COLECCION</t>
+          <t>SAINTPAULIA</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -16369,49 +16369,49 @@
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G176" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H176" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I176" s="4" t="n">
-        <v>79.59999999999999</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="J176" s="4" t="n">
-        <v>45</v>
+        <v>62.48</v>
       </c>
       <c r="K176" s="4" t="n">
-        <v>36.36</v>
+        <v>56.25</v>
       </c>
       <c r="L176" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M176" s="5" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N176" s="5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O176" s="4" t="n">
         <v>14</v>
       </c>
       <c r="P176" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q176" s="4" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="R176" s="4" t="n">
-        <v>196.67</v>
+        <v>286.67</v>
       </c>
       <c r="S176" s="5" t="n">
         <v>30</v>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="V176" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W176" s="4" t="inlineStr">
@@ -16804,17 +16804,17 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>1105050024</t>
+          <t>1306150001</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON RING OF FIRE</t>
+          <t>GERBERA</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -16824,49 +16824,49 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G181" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I181" s="4" t="n">
-        <v>39.96</v>
+        <v>64.87</v>
       </c>
       <c r="J181" s="4" t="n">
-        <v>9.81</v>
+        <v>32.45</v>
       </c>
       <c r="K181" s="4" t="n">
-        <v>28.57</v>
+        <v>81.25</v>
       </c>
       <c r="L181" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M181" s="5" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N181" s="5" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O181" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P181" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q181" s="4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R181" s="4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="S181" s="5" t="n">
         <v>30</v>
@@ -16878,34 +16878,34 @@
       </c>
       <c r="U181" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V181" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W181" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>1306150001</t>
+          <t>1105050024</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>GERBERA</t>
+          <t>PHILODENDRON RING OF FIRE</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -16915,49 +16915,49 @@
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G182" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>64.87</v>
+        <v>39.96</v>
       </c>
       <c r="J182" s="4" t="n">
-        <v>32.45</v>
+        <v>9.81</v>
       </c>
       <c r="K182" s="4" t="n">
-        <v>81.25</v>
+        <v>28.57</v>
       </c>
       <c r="L182" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M182" s="5" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N182" s="5" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O182" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P182" s="4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q182" s="4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R182" s="4" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S182" s="5" t="n">
         <v>30</v>
@@ -16969,17 +16969,17 @@
       </c>
       <c r="U182" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V182" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W182" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21865,61 +21865,69 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1602010078</t>
+          <t>1305200001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr"/>
+          <t>OXALIS MIX</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="J52" s="4" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="K52" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M52" s="5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S52" s="5" t="n">
         <v>30</v>
@@ -21931,86 +21939,78 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1305200001</t>
+          <t>1602010078</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>OXALIS MIX</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>M13A15</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>45.43</v>
+        <v>52.49</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>21.7</v>
+        <v>28.12</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>87.5</v>
+        <v>33.33</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -22022,17 +22022,17 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26482,17 +26482,17 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>1104020006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>ORNITHOGALUM DUBIUM</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -26514,59 +26514,59 @@
         <v>30</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>35.7</v>
+        <v>38.96</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>17.27</v>
+        <v>20.24</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="L103" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>306.67</v>
+        <v>106.67</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T103" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T103" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26664,17 +26664,17 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1104020006</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>ORNITHOGALUM DUBIUM</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -26696,59 +26696,59 @@
         <v>30</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>38.96</v>
+        <v>35.7</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>20.24</v>
+        <v>17.27</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="L105" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>106.67</v>
+        <v>306.67</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T105" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T105" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W105" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -27665,12 +27665,12 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010087</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TETERA PEQUEÑA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
@@ -27692,10 +27692,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>34.95</v>
+        <v>34.49</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>17.77</v>
+        <v>17.35</v>
       </c>
       <c r="K116" s="4" t="n">
         <v>50</v>
@@ -27748,12 +27748,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>1602010062</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TAZA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
@@ -27775,16 +27775,16 @@
         <v>1</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>39.95</v>
+        <v>34.95</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>22.32</v>
+        <v>17.77</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L117" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" s="5" t="n">
         <v>0.2</v>
@@ -27793,50 +27793,50 @@
         <v>0.5</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T117" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T117" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>1602010087</t>
+          <t>1602010062</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TETERA PEQUEÑA</t>
+          <t>COMPOSICION TAZA PEQUEÑA</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr"/>
@@ -27858,16 +27858,16 @@
         <v>1</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>34.49</v>
+        <v>39.95</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>17.35</v>
+        <v>22.32</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L118" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" s="5" t="n">
         <v>0.2</v>
@@ -27876,38 +27876,38 @@
         <v>0.5</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T118" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T118" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U118" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V118" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W118" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -31246,12 +31246,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1501060011</t>
+          <t>1501060012</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
+          <t>CEROPEGIA WOODII</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -31302,7 +31302,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -31337,12 +31337,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1501060012</t>
+          <t>1501060011</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CEROPEGIA WOODII</t>
+          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -31393,7 +31393,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -33976,17 +33976,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1106020030</t>
+          <t>1501060004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA AMAZONICA + COCO</t>
+          <t>ANACAMPSEROS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M11A25</t>
+          <t>M85A10</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -33996,43 +33996,43 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O33" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>0</v>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -34067,17 +34067,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1501060004</t>
+          <t>1106020030</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ANACAMPSEROS</t>
+          <t>ALOCASIA AMAZONICA + COCO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M85A10</t>
+          <t>M11A25</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -34087,25 +34087,25 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>19.96</v>
+        <v>23.9</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>0</v>
@@ -34114,16 +34114,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -34787,17 +34787,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -34819,31 +34819,31 @@
         <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>29.97</v>
+        <v>19.95</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>19.36</v>
+        <v>10.25</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>0</v>
@@ -34856,12 +34856,12 @@
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -34871,24 +34871,24 @@
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -34910,31 +34910,31 @@
         <v>30</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>19.95</v>
+        <v>29.97</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>10.25</v>
+        <v>19.36</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
@@ -34947,12 +34947,12 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -35515,17 +35515,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1105070005</t>
+          <t>1108140019</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM PINK</t>
+          <t>SENECIO MIX</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>C20COLG</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -35550,13 +35550,13 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>18.98</v>
+        <v>28.98</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>10.01</v>
+        <v>19.11</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -35568,55 +35568,55 @@
         <v>1</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1108140019</t>
+          <t>1105070005</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SENECIO MIX</t>
+          <t>SYNGONIUM PINK</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>C20COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -35641,13 +35641,13 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>28.98</v>
+        <v>18.98</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>19.11</v>
+        <v>10.01</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
@@ -35659,38 +35659,38 @@
         <v>1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -36872,17 +36872,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1105010025</t>
+          <t>1105070006</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
+          <t>SYNGONIUM MOTTLED</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -36904,76 +36904,76 @@
         <v>30</v>
       </c>
       <c r="H65" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="K65" s="4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I65" s="4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J65" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K65" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O65" s="4" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1105070006</t>
+          <t>1105010025</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM MOTTLED</t>
+          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -36995,59 +36995,59 @@
         <v>30</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>8.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37857,17 +37857,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>1501070002</t>
+          <t>1107050001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CEREUS PERUVIANUS</t>
+          <t>FICUS BELICE</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -37877,43 +37877,43 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>17.94</v>
+        <v>19.9</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>10.31</v>
+        <v>12.09</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N76" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O76" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0</v>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -37948,17 +37948,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>1107050001</t>
+          <t>1501070002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>FICUS BELICE</t>
+          <t>CEREUS PERUVIANUS</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -37968,43 +37968,43 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>19.9</v>
+        <v>17.94</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>12.09</v>
+        <v>10.31</v>
       </c>
       <c r="K77" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L77" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N77" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P77" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -38312,17 +38312,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>1103070001</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ZAMIOCULCAS</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -38344,76 +38344,76 @@
         <v>30</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>13.65</v>
+        <v>15.8</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>6.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T81" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1103070001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>ZAMIOCULCAS</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -38435,59 +38435,59 @@
         <v>30</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>15.8</v>
+        <v>13.65</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T82" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T82" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -38858,17 +38858,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>1101030013</t>
+          <t>1506010001</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA 2 TRONCOS</t>
+          <t>SANSEVIERIA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>C17A245</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -38878,12 +38878,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -38893,10 +38893,10 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>14.95</v>
+        <v>16.95</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="K87" s="4" t="n">
         <v>0</v>
@@ -38914,7 +38914,7 @@
         <v>-1</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q87" s="4" t="n">
         <v>0</v>
@@ -38949,17 +38949,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>1506010001</t>
+          <t>1101030013</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>SANSEVIERIA</t>
+          <t>DRACAENA MARGINATA 2 TRONCOS</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>C17A245</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -38969,12 +38969,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -38984,10 +38984,10 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>16.95</v>
+        <v>14.95</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>10.1</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K88" s="4" t="n">
         <v>0</v>
@@ -39005,7 +39005,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0</v>
@@ -41406,17 +41406,17 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>1102010023</t>
+          <t>1501060004</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA NATASJA</t>
+          <t>ANACAMPSEROS</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A10</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -41426,12 +41426,12 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
@@ -41441,13 +41441,13 @@
         <v>2</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>9.58</v>
+        <v>9.98</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="L115" s="4" t="n">
         <v>0</v>
@@ -41459,55 +41459,55 @@
         <v>1</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q115" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R115" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S115" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T115" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T115" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U115" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V115" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W115" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1501060004</t>
+          <t>1102010023</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>ANACAMPSEROS</t>
+          <t>FICUS BENJAMINA NATASJA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>M12A10</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -41517,12 +41517,12 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
@@ -41532,13 +41532,13 @@
         <v>2</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>9.98</v>
+        <v>9.58</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>5.43</v>
+        <v>5.07</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
@@ -41550,38 +41550,38 @@
         <v>1</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T116" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T116" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -41952,17 +41952,17 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>1501070005</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX + CERAMICA</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>M6A10</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -41984,76 +41984,76 @@
         <v>30</v>
       </c>
       <c r="H121" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I121" s="4" t="n">
-        <v>7.99</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J121" s="4" t="n">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="K121" s="4" t="n">
-        <v>0</v>
+        <v>11.86</v>
       </c>
       <c r="L121" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M121" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N121" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O121" s="4" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="P121" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q121" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R121" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S121" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T121" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T121" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U121" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V121" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W121" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1501070005</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>CACTUS MIX + CERAMICA</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M6A10</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -42075,59 +42075,59 @@
         <v>30</v>
       </c>
       <c r="H122" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>4.14</v>
+        <v>4.08</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="L122" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M122" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N122" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q122" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S122" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T122" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T122" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U122" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.92€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V122" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W122" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -42945,12 +42945,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>1501070011</t>
+          <t>1501060008</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
+          <t>CRASSULA TECTA</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -43001,7 +43001,7 @@
         <v>6</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q132" s="4" t="n">
         <v>59</v>
@@ -43036,12 +43036,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>1501060008</t>
+          <t>1501070011</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>CRASSULA TECTA</t>
+          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -43092,7 +43092,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q133" s="4" t="n">
         <v>59</v>
@@ -45383,32 +45383,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>C25A110</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -45427,7 +45419,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -45436,7 +45428,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -45457,7 +45449,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -45474,36 +45466,28 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>M12A45</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RAMO BOUQUET 5 ROSAS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0</v>
@@ -45518,7 +45502,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45527,7 +45511,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -45536,7 +45520,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>613.33</v>
+        <v>1314.29</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -45548,7 +45532,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -45565,28 +45549,36 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>STEPHANOTIS PIRAMIDE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>C20A90</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -45601,7 +45593,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -45610,19 +45602,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>96.67</v>
+        <v>120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45631,12 +45623,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45648,17 +45640,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>ALOCASIA BAGINDA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>M14A35</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -45668,12 +45660,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -45692,7 +45684,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -45701,19 +45693,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>143.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -45722,12 +45714,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -45739,17 +45731,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45759,12 +45751,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -45798,13 +45790,13 @@
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
@@ -45813,12 +45805,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -45830,17 +45822,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45874,7 +45866,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45883,7 +45875,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -45904,7 +45896,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -45921,36 +45913,28 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0</v>
@@ -45965,7 +45949,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45974,7 +45958,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45983,7 +45967,7 @@
         <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -45995,7 +45979,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -46012,17 +45996,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A40</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -46032,16 +46016,16 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0</v>
@@ -46056,7 +46040,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -46065,7 +46049,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -46074,7 +46058,7 @@
         <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -46086,7 +46070,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -46103,17 +46087,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46123,12 +46107,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -46147,7 +46131,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46156,19 +46140,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>143.33</v>
+        <v>176.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -46177,12 +46161,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46194,17 +46178,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C19A20</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -46214,12 +46198,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -46238,7 +46222,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46247,16 +46231,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -46268,12 +46252,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -46285,36 +46269,28 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>C20A90</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>0</v>
@@ -46329,7 +46305,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -46338,19 +46314,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>120</v>
+        <v>1314.29</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46359,12 +46335,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46376,17 +46352,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -46396,12 +46372,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -46420,7 +46396,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -46429,16 +46405,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>30</v>
@@ -46450,12 +46426,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -46467,36 +46443,28 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>M12A25</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -46511,7 +46479,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46520,16 +46488,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>400</v>
+        <v>306.67</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -46541,12 +46509,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46558,17 +46526,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -46578,12 +46546,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -46602,7 +46570,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46611,16 +46579,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -46632,12 +46600,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46649,17 +46617,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -46693,7 +46661,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46702,16 +46670,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>286.67</v>
+        <v>613.33</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -46723,12 +46691,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -46740,17 +46708,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -46760,16 +46728,16 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
@@ -46784,7 +46752,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46793,19 +46761,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
@@ -46814,12 +46782,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -46831,17 +46799,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>CAMPANULA + CUBRE ZINK</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46851,16 +46819,16 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
@@ -46875,7 +46843,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46884,16 +46852,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>306.67</v>
+        <v>286.67</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -46905,12 +46873,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46922,17 +46890,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46942,16 +46910,16 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>0</v>
@@ -46966,7 +46934,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46975,19 +46943,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -46996,12 +46964,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -47013,17 +46981,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -47033,12 +47001,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -47057,7 +47025,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47066,19 +47034,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
@@ -47087,12 +47055,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -47104,17 +47072,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -47124,16 +47092,16 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>0</v>
@@ -47148,7 +47116,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47157,19 +47125,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>113.33</v>
+        <v>60</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
@@ -47178,12 +47146,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -47195,24 +47163,32 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
+          <t>CHAMAEDOREA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>C20A110</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -47231,7 +47207,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -47240,19 +47216,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
@@ -47261,12 +47237,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47278,17 +47254,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -47298,16 +47274,16 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>0</v>
@@ -47322,7 +47298,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -47331,7 +47307,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -47340,7 +47316,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>30</v>
@@ -47352,7 +47328,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -47369,17 +47345,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -47389,16 +47365,16 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>0</v>
@@ -47413,7 +47389,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47422,16 +47398,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>176.67</v>
+        <v>400</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>30</v>
@@ -47448,7 +47424,7 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -47460,17 +47436,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -47480,12 +47456,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -47504,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -47513,16 +47489,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -47534,12 +47510,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -47551,17 +47527,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -47571,16 +47547,16 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -47595,7 +47571,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47604,16 +47580,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>213.33</v>
+        <v>306.67</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -47625,12 +47601,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47642,32 +47618,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>C20A60</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -47686,7 +47654,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47695,7 +47663,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -47716,7 +47684,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -47733,17 +47701,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -47753,16 +47721,16 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -47777,7 +47745,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47786,19 +47754,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>196.67</v>
+        <v>113.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -47807,12 +47775,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -47824,17 +47792,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47844,16 +47812,16 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>0</v>
@@ -47868,7 +47836,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47877,7 +47845,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
@@ -47886,7 +47854,7 @@
         <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>30</v>
@@ -47898,7 +47866,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -47915,17 +47883,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47935,16 +47903,16 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4" t="n">
         <v>0</v>
@@ -47959,7 +47927,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47968,16 +47936,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -47989,12 +47957,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -48006,12 +47974,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
+          <t>CESTA ASAS BLANCA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -48042,7 +48010,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48051,19 +48019,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>306.67</v>
+        <v>96.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -48072,12 +48040,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -48089,17 +48057,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>BRASSIA 1SP</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48109,12 +48077,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -48133,7 +48101,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -48142,16 +48110,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -48163,12 +48131,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -48180,32 +48148,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>M55A10</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -48224,7 +48184,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48233,19 +48193,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -48254,12 +48214,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -48271,17 +48231,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -48291,12 +48251,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -48315,7 +48275,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48324,16 +48284,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -48345,12 +48305,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -48362,17 +48322,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M15A40</t>
+          <t>M13A50</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48382,16 +48342,16 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -48421,13 +48381,13 @@
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>56.67</v>
+        <v>213.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
@@ -48436,12 +48396,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -48453,17 +48413,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -48473,16 +48433,16 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4" t="n">
         <v>0</v>
@@ -48497,7 +48457,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -48506,16 +48466,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -48527,12 +48487,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -48544,28 +48504,36 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>FICUS ELASTICA MEZCLA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>M6A15</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H37" s="4" t="n">
         <v>0</v>
@@ -48580,7 +48548,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48589,7 +48557,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
@@ -48598,7 +48566,7 @@
         <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -48610,7 +48578,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -48627,12 +48595,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -48663,7 +48631,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48672,7 +48640,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -48693,7 +48661,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -48710,17 +48678,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>C22A150</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -48754,7 +48722,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48763,19 +48731,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>93.33</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -48784,12 +48752,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -48801,17 +48769,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48821,16 +48789,16 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>0</v>
@@ -48845,7 +48813,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48854,16 +48822,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>30</v>
@@ -48875,12 +48843,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48892,24 +48860,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>M12A40</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48928,7 +48904,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48937,7 +48913,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
@@ -48958,7 +48934,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -48975,28 +48951,36 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>MANGAVE</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>C17A30</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>0</v>
@@ -49011,7 +48995,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -49020,19 +49004,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1314.29</v>
+        <v>93.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
@@ -49041,12 +49025,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -49149,24 +49133,16 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -49193,7 +49169,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -49202,7 +49178,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -49223,7 +49199,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -49240,28 +49216,36 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>VRIESEA MADONNA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>M12A45</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -49276,7 +49260,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -49285,7 +49269,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
@@ -49294,7 +49278,7 @@
         <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>30</v>
@@ -49306,7 +49290,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -49323,17 +49307,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>OPUNTIA RETICULATA COBRA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -49343,16 +49327,16 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>0</v>
@@ -49367,7 +49351,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -49376,16 +49360,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -49397,12 +49381,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -49414,17 +49398,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -49434,16 +49418,16 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -49458,7 +49442,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49467,16 +49451,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -49488,12 +49472,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -49505,17 +49489,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -49525,16 +49509,16 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>0</v>
@@ -49549,7 +49533,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -49558,7 +49542,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
@@ -49567,7 +49551,7 @@
         <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -49579,7 +49563,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -49596,17 +49580,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -49616,12 +49600,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -49640,7 +49624,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49649,19 +49633,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>176.67</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T49" s="6" t="inlineStr">
         <is>
@@ -49670,12 +49654,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -49687,17 +49671,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>C32A200</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -49731,7 +49715,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49740,19 +49724,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>60</v>
+        <v>93.33</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50" s="6" t="inlineStr">
         <is>
@@ -49761,12 +49745,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -49778,17 +49762,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49822,7 +49806,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49831,19 +49815,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>113.33</v>
+        <v>613.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T51" s="6" t="inlineStr">
         <is>
@@ -49852,12 +49836,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49869,17 +49853,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>LILIUM ROSA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>M13A40</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49889,16 +49873,16 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>0</v>
@@ -49913,7 +49897,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49922,19 +49906,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49943,12 +49927,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49960,17 +49944,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>C23A50</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49980,12 +49964,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -50004,7 +49988,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -50013,16 +49997,16 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -50034,12 +50018,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -50051,12 +50035,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+          <t>TERRARIO VIVANT IZUMI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -50087,7 +50071,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50096,7 +50080,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -50117,7 +50101,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -50134,24 +50118,16 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>C19A20</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -50178,7 +50154,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50187,7 +50163,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
@@ -50208,7 +50184,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -50225,17 +50201,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -50245,16 +50221,16 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4" t="n">
         <v>0</v>
@@ -50269,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50278,19 +50254,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>93.33</v>
+        <v>613.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50299,12 +50275,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50316,24 +50292,32 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr"/>
-      <c r="D57" s="3" t="inlineStr"/>
+          <t>HAWORTHIA FASCIATA</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>M85A20</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -50352,7 +50336,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50361,7 +50345,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
@@ -50382,7 +50366,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -50399,24 +50383,32 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>DRACAENA MARGINATA</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>C24A100</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -50435,7 +50427,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50444,19 +50436,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>110</v>
+        <v>93.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
@@ -50465,12 +50457,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -50482,24 +50474,32 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="3" t="inlineStr"/>
+          <t>CHLOROPHYTUM</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>M15COLG</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -50518,7 +50518,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50527,19 +50527,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T59" s="6" t="inlineStr">
         <is>
@@ -50548,12 +50548,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50565,17 +50565,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -50585,12 +50585,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -50609,7 +50609,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50618,16 +50618,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S60" s="5" t="n">
         <v>30</v>
@@ -50639,12 +50639,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -50656,17 +50656,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>C20A110</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50715,13 +50715,13 @@
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -50730,12 +50730,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50747,24 +50747,32 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr"/>
+          <t>MAMMILLARIA CATERPINCY</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -50783,7 +50791,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50792,16 +50800,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>30</v>
@@ -50813,12 +50821,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50830,36 +50838,28 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>M6A20</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H63" s="4" t="n">
         <v>0</v>
@@ -50874,7 +50874,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50883,7 +50883,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
@@ -50892,7 +50892,7 @@
         <v>92</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>30</v>
@@ -50904,7 +50904,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50921,17 +50921,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50965,7 +50965,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50974,19 +50974,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -50995,12 +50995,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -51012,17 +51012,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>C17A80</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -51032,16 +51032,16 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
@@ -51056,7 +51056,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51065,16 +51065,16 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>113.33</v>
+        <v>106.67</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>20</v>
@@ -51091,7 +51091,7 @@
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -51103,17 +51103,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -51123,12 +51123,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -51147,7 +51147,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -51156,19 +51156,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>106.67</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -51177,12 +51177,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -51194,17 +51194,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
+          <t>FICUS GINSENG + CERAMICA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M15A40</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -51214,16 +51214,16 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -51238,7 +51238,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -51247,7 +51247,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
@@ -51256,10 +51256,10 @@
         <v>17</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>113.33</v>
+        <v>56.67</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T67" s="6" t="inlineStr">
         <is>
@@ -51268,7 +51268,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
